--- a/pred_ohlcv/54_21/2019-10-19 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 DVP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-234861.874351049</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-234816.985551049</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-235858.985551049</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-236855.949951049</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-249849.705751049</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-349511.872451049</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-349955.872451049</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-280469.802551049</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-280479.802551049</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-291713.5739510491</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-291663.5739510491</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-291663.5739510491</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-438656.0947510491</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-750438.6377510491</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-947638.3541659425</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1481833.770540428</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1517249.892240428</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1488947.373240428</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1518903.373240428</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1586253.835802747</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1518623.265302747</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1528623.265302747</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1528612.265302747</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1808501.265302747</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2044946.265302747</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2045000.265302747</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2026111.758802747</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2035425.020802747</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2035414.020802747</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2035404.020802747</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2035394.020802747</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2070247.294002747</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2070187.294002747</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2067981.251502747</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1982745.366002747</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2223466.219702747</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2225598.914702747</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3634939.504402746</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3581652.052302747</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3579972.052302747</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3879908.052302747</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3902885.929302746</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-4106125.943268418</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 DVP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-233831.874351049</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-234861.874351049</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-234806.985551049</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-234816.985551049</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-234806.541151049</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-235858.985551049</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-235848.985551049</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-236855.949951049</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-236815.949951049</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-237538.197151049</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-249851.524551049</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-249831.524551049</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-249849.705751049</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-249839.705751049</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-164375.996451049</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>25310.825048951</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-44699.174951049</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-349511.872451049</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-349955.872451049</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-280469.802551049</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-280479.802551049</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-291713.5739510491</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-291663.5739510491</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-291363.5739510491</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-438656.0947510491</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-947638.3541659425</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1310442.052770575</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1481833.770540428</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1517249.892240428</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1488947.373240428</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1518903.373240428</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1518332.648602747</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1585878.209002747</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1585868.209002747</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1585858.209002747</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1586253.835802747</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1515287.850002747</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1518845.551002747</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1518633.265302747</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1518623.265302747</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1528623.265302747</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1528612.265302747</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1808512.265302747</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1808501.265302747</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2044936.265302747</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2044946.265302747</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2045000.265302747</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2026111.758802747</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2035425.020802747</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2035414.020802747</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2035404.020802747</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2035394.020802747</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2035438.465202747</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2070247.294002747</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2070187.294002747</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2067981.251502747</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1982745.366002747</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2223466.219702747</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2225598.914702747</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2949320.520402746</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2953714.298102746</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3634939.504402746</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4406045.943268418</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4392392.867268418</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
